--- a/mentors/dan/data/NPCEditor_data.xlsx
+++ b/mentors/dan/data/NPCEditor_data.xlsx
@@ -42,8 +42,9 @@
 What is your history?
 I want to know everything about you?
 Explain your background.
-what is a deployment?
-Tell me about yourself</t>
+How would you describe yourself?
+Tell me about yourself
+I want to know more about you</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A2_1_1</t>
@@ -56,8 +57,9 @@
 Who are you?
 What do people call you?
 How are you addressed?
-What is your name?
-What’s your last name Dan?</t>
+What’s your last name Dan?
+Can I call you Dan?
+How would you like to be addressed?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A3_1_1</t>
@@ -71,7 +73,8 @@
 What is your date of birth?
 What time were you born?
 When was your birth year?
-Which year were you born?</t>
+Which year were you born?
+Where you born in the 70s?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A4_1_1</t>
@@ -103,7 +106,8 @@
 What's your sign?
 Is it your birthday?
 When is your date of birth?
-When were you born?</t>
+When were you born?
+What can you tell me about your birth date?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A6_1_1</t>
@@ -172,7 +176,9 @@
 do you have children?
 do you have a wife?
 tell me about your children
-how is your family?</t>
+how is your family?
+Are you married?
+do you have kids?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A10_1_1</t>
@@ -186,8 +192,10 @@
 where all have you travelled?
 did you travel a lot?
 how many places have you visited?
-Where do you go?
-Do you go on vacation?</t>
+Tell me about some of the places you have been on a vacation?
+Do you go on vacation?
+What all places have you visited?
+Are you fond of travel?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A11_1_1</t>
@@ -221,7 +229,8 @@
 When did you begin serving?
 When did you sign your Navy contract?
 When did you start your Navy career?
-when did you enlist?</t>
+when did you enlist?
+When did your journey with the Navy start?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A13_1_1</t>
@@ -252,7 +261,10 @@
 What is your position in the Navy?
 Are you high up in the Navy?
 What is your position in the military?
-Are you a boss in the Navy?</t>
+Are you a boss in the Navy?
+What is your post in the Navy?
+Are you a commander in the military?
+Do you have a senior position in the armed forces?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A15_1_1</t>
@@ -266,9 +278,10 @@
 what work did you do in the military?
 what were your tasks in the military?
 what did you have to do in the military?
-What’s your job?
+What job function did you have in the military?
 What do you do?
-What did you do in Vietnam?</t>
+What did you do in Vietnam?
+What roles did you have in your job at the Navy?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A16_1_1</t>
@@ -284,7 +297,8 @@
 are you a boss in the military?
 are you highly ranked in the military?
 How powerful are you?
-What is your rank?</t>
+What is your rank?
+Do you have a senior post in the Navy?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A17_1_1</t>
@@ -299,8 +313,8 @@
 Are you in charge on the ship?
 Do you have a leadership role?
 are you the boss in the military?
-are you an officer?
-Are you an officer?</t>
+What is your position in the Navy?
+Do you have an officer role?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A18_1_1</t>
@@ -316,7 +330,8 @@
 is it hard to get a good rank?
 what was your career path like?
 Did you elevate in rank over time?
-What did you do to go up in your career?</t>
+What did you do to go up in your career?
+What does it take to reach to the position you are now?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A19_1_1</t>
@@ -386,7 +401,8 @@
 Is cryptology the only thing you worked on?
 Was everything you did in the Navy about technology?
 Did you do different things in the Navy?
-Do you have to build trenches?</t>
+Do you have to build trenches?
+What kind of work did you do outside cryptology?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A23_1_1</t>
@@ -464,7 +480,8 @@
 What is enlisted?
 What is an officer?
 How does the E ranking system work?
-what does an officer do?</t>
+what does an officer do?
+What are the duties of your position in the Navy?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A27_1_1</t>
@@ -480,7 +497,8 @@
 who are NCOs?
 who are petty officers?
 Are there middle managers?
-who are above enlisted peronel?</t>
+who are above enlisted personnel?
+Can you explain an NCO?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A28_1_1</t>
@@ -496,7 +514,8 @@
 compared to other careers is navy a good career option?
 Should I join the Navy?
 Is having a career in the Navy a good idea?
-What kind of career is being in the military?</t>
+What kind of career is being in the military?
+Do you think that working for the Navy is a right choice?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A29_1_1</t>
@@ -529,7 +548,8 @@
 What is life like out of the Navy?
 How has your life changed out of the Navy?
 What do you do after the Navy?
-How is it being retired?</t>
+How is it being retired?
+Are you retired?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A31_1_1</t>
@@ -597,7 +617,9 @@
 What are the issues you have to resolve being in the Navy?
 What problems do you see regularly?
 Do you run into problems?
-Is the military every boring?</t>
+Is the military every boring?
+What are the different kind of challenges you face in your line of work?
+What are the different hurdles you face on a day to day basis?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A35_1_1</t>
@@ -613,7 +635,8 @@
 Do Navy sailors drink a lot?
 What happens when sailors get too drunk?
 Is alcoholism bad?
-Can I drinka lot?</t>
+Can I drink a lot?
+Can you have booze in the military?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A36_1_1</t>
@@ -676,7 +699,8 @@
 How would you describe the uniforms of the military?
 What uniforms do you have to wear?
 Do you have to wear the same uniform every day?
-Are the uniforms comfortable?</t>
+Are the uniforms comfortable?
+Do you wear a lot of different uniforms everyday?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A40_1_2</t>
@@ -746,7 +770,8 @@
 is there anything you would like to change about your career?
 What’s wrong about your career?
 If you had to do your job over again, what would you do?
-What would you do differently?</t>
+What would you do differently?
+If given a chance, what would you change about your career?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A44_1_2</t>
@@ -926,7 +951,8 @@
 Is my position set in stone in the Navy?
 Can I switch positions in the Navy?
 Can I switch careers?
-What if I’m not good at Navy work?</t>
+What if I’m not good at Navy work?
+Does Navy provide you enough flexibility to switch careers?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A55_1_3</t>
@@ -1004,7 +1030,9 @@
 Do you know a lot of languages?
 How many languages do you speak?
 Do you speak languages other than English?
-Do you know Vietnamese?</t>
+Do you know Vietnamese?
+Are you bilingual or multilingual?
+Do you speak more than one language?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A60_1_3</t>
@@ -1018,7 +1046,8 @@
 Have you solved technical problems?
 What technical issues do you solve?
 Can you give an example of a technical problem you solved?
-Do you have to be a technical expert?</t>
+Do you have to be a technical expert?
+Can you tell me about a technical hurdle that you have overcome as part of your job?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A61_1_3</t>
@@ -1033,7 +1062,8 @@
 Do you get to talk to people?
 Is it boring working on only technology?
 Do you love technology?
-Do you like your job?</t>
+Do you like your job?
+How much of your job is about people skills vs technical skills?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A62_1_3</t>
@@ -1127,7 +1157,8 @@
 When are you in port?
 What is a port call?
 What does port call mean?
-Did you work out in the sea?</t>
+Did you work out in the sea?
+Can you tell more about "in port"?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A68_2_1</t>
@@ -1139,7 +1170,9 @@
     <t xml:space="preserve">What is a rate?
 What does rate mean?
 What does the Navy call specialities?
-What's the way to tell what a sailor does?</t>
+What's the way to tell what a sailor does?
+Does Navy follow a way of categorizing the specialities of sailors?
+Can you explain what does rate mean with respect to the Navy?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A69_2_1</t>
@@ -1184,7 +1217,9 @@
 have you been to vietnam
 did you get to visit vietnam?
 tell me about your deployments
-tell me about the places you have visited when you were deployed</t>
+tell me about the places you have visited when you were deployed
+What all places have you been deployed to?
+Can you list all the place of your deployment ?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A72_2_1</t>
@@ -1259,7 +1294,8 @@
 Do we get a good idea about what your job is like?
 does popular culture imagine your job decently?
 How do you look in uniform?
-Does everyone look really athletic?</t>
+Does everyone look really athletic?
+What do you think is overrated about your job?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A76_2_1</t>
@@ -1355,7 +1391,8 @@
 Do orders to a new command disrupt your life?
 Do you move a lot?
 Do you get stuck in one place?
-Do you enjoy moving?</t>
+Do you enjoy moving?
+What journeys has your career take you on?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A82_2_1</t>
@@ -1449,7 +1486,9 @@
 If you screw up, but worked hard, do you get another chance?
 Is failure, even if it is not your fault, held against you?
 Do you get blamed if something does not work?
-How severe is failure at work?</t>
+How severe is failure at work?
+What would happen if you mess up?
+How bad it is when you screw up something in the Navy?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A88_2_1</t>
@@ -1463,7 +1502,9 @@
 Does everybody have a chance to get promoted?
 Is there always something new to learn and master?
 Why do people choose this field?
-Are you able to grow as a person in this field?</t>
+Are you able to grow as a person in this field?
+is there scope for career growth in your field?
+How growth friendly is this field?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A89_2_1</t>
@@ -1477,7 +1518,9 @@
 Do you work with a lot of technical equipment?
 Do you work with fancy gear or just regular tools?
 Do you work in a lab or on-site?
-What is the technical tasks like?</t>
+What is the technical tasks like?
+What can you tell me about the technical environment that you work in?
+How would you describe the tehcnological environment that you work in?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A90_2_1</t>
@@ -1491,7 +1534,10 @@
 Do you have a professional society?
 Should I join any professional groups?
 Is it worth joining honor societies?
-Are you a part of IEEE?</t>
+Are you a part of IEEE?
+Have you been a part of ACM?
+Did you find any organizations that played an important role in your career?
+Can you list any organzations that you found useful for your career?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A91_2_1</t>
@@ -1507,7 +1553,8 @@
 Is this field risky?
 How bad is the risk?
 Can you die easily?
-Is risk rewarded well?</t>
+Is risk rewarded well?
+Are you encouraged to take risks in your job?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A92_2_1</t>
@@ -1575,7 +1622,8 @@
 Who would you love to meet and ask questions?
 What kind of person would you want to meet?
 What pop icon would you want to meet?
-Are there any musicians that you’re into?</t>
+Are there any musicians that you’re into?
+Do you have a role model that you would like to meet?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A96_2_2</t>
@@ -1721,7 +1769,10 @@
 what do i do to stop struggling in school?
 What was your GPA in high school?
 Did you get good grades in high school?
-Did you get good test scores?</t>
+Did you get good test scores?
+Did you struggle in school?
+Do grades in school matter?
+Do you have some tips for someone who is flunking in school?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A105_2_2</t>
@@ -1737,7 +1788,8 @@
 Have you been bullied in high school?
 What was high school like for you?
 Are there bullies in the military?
-Do bullies effect you negatively?</t>
+Do bullies effect you negatively?
+How to handle bullies in school?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A106_2_2</t>
@@ -1801,7 +1853,8 @@
 how can I be sure I am doing the right thing?
 What advise can you give me that can help me in picking the right career field?
 how do I pick the right career field?
-When did you switch from nuclear tech to computer science?</t>
+When did you switch from nuclear tech to computer science?
+How do you know which is the right career field for you?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A110_2_2</t>
@@ -1831,7 +1884,9 @@
 can you help me if I don't know what to do?
 I'm stuck in selecting my career path. Can you help?
 What should I do if I don't know which job would suit me best?
-I’m wondering what I should do</t>
+I’m wondering what I should do
+Is it bad when you don't have a fixed plan for your career?
+Is it necessary to have a fixed plan for your career?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A112_2_2</t>
@@ -1877,7 +1932,9 @@
 What is one question you never asked?
 What did you never ask but wish you had?
 One question you wish you had asked before?
-Is there something you wish you had asked earlier?</t>
+Is there something you wish you had asked earlier?
+Is there any question that you wish youhad asked earlier?
+What is one question that you should have asked?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A115_2_2</t>
@@ -2025,7 +2082,11 @@
     <t xml:space="preserve">When you were a kid, what did you want to be when you grew up?
 did you dream of doing a job like this?
 did you have dreams of being something else?
-do you remember what you used to think you wanted to do as an adult?</t>
+do you remember what you used to think you wanted to do as an adult?
+What was your dream job when you were a kid?
+Did you have a dream in your initial years?
+What was your childhood dream?
+Did you accomplish your childhood dream?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A124_3_1</t>
@@ -2040,7 +2101,8 @@
 what sports did you like to play?
 are you athletic?
 what did you do in high school?
-did you do any activities or extraurriculars in high school?</t>
+did you do any activities or extraurriculars in high school?
+Were you into sports in school?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A125_3_1</t>
@@ -2052,7 +2114,9 @@
     <t xml:space="preserve">What is your favorite color?
 do you have a favorite color?
 do you have any color preferences?
-other than Navy blue, what colors do you like?</t>
+other than Navy blue, what colors do you like?
+Which color do you usually prefer?
+Is there a color that you really like over the others?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A126_3_1</t>
@@ -2090,7 +2154,9 @@
 do you have any brothers or sisters?
 how many kids in your family growing up?
 are you an only child?
-how is your relationship with your brother or sister?</t>
+how is your relationship with your brother or sister?
+How many siblings do you have?
+Tell me something about your siblings?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A128_3_1</t>
@@ -2103,7 +2169,10 @@
 what do you like to eat?
 what is your ideal meal?
 do you have a favorite dish ?
-what is you preferred cuisine?</t>
+what is you preferred cuisine?
+Do you like chinese or italian?
+Are you a foodie?
+Do you like deserts?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A129_3_1</t>
@@ -2115,7 +2184,11 @@
     <t xml:space="preserve">What is your least favorite food?
 is there anything you hate to eat?
 what food makes you gag?
-what food do you hate?</t>
+what food do you hate?
+Do you have cucumbers?
+is there any food that you'd die but rather not eat?
+Do you have food that you really do not like?
+Is there any dish that makes you go Eew?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A130_3_1</t>
@@ -2144,7 +2217,12 @@
     <t xml:space="preserve">Do you shoot guns?
 how often do you get to shoot guns?
 do you fire rifles in the Navy?
-does everyone use guns?</t>
+does everyone use guns?
+Have you ever used guns in the Navy?
+Do you have a revolver?
+Can you shoot in the military?
+Have you ever shot someone?
+Are you a sniper?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A132_3_1</t>
@@ -2158,7 +2236,9 @@
 what recognition have you gotten?
 what did you do to earn your decorations?
 have you gotten any awards for your service?
-what are your military acheivements?</t>
+what are your military acheivements?
+Have you ever been honored in the military for your achievements?
+What are some of the accolades that you have received in your service?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A133_3_1</t>
@@ -2172,7 +2252,9 @@
 did you ever get tattooed ?
 are tattoos common in the Navy?
 what tattoos do you have?
-show me your tattoos.</t>
+show me your tattoos.
+Are tattoos popular among the folks at the Navy?
+Is it common to have tattoos in the Navy?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A134_3_1</t>
@@ -2184,7 +2266,11 @@
     <t xml:space="preserve">Did the Navy give you a chance to live overseas?
 have you been assigned overseas?
 have you been able to live abroad?
-has the Navy moved you to different countries?</t>
+has the Navy moved you to different countries?
+Have you ever travelled overseas for work?
+Did you travel outside US for work?
+Were you ever posted outside United States
+Have you travelled to other countries for duty?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A135_3_1</t>
@@ -2198,7 +2284,10 @@
 tell me about crime in the Navy.
 are crimes common in the Navy?
 are military members criminals?
-what illegal things do people do?</t>
+what illegal things do people do?
+What kind of crimes do people usually commit in the Navy?
+Are crimes common in the Navy?
+Do you find officers commiting crime in the Navy?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A136_3_1</t>
@@ -2228,7 +2317,9 @@
 is there a signing bonus?
 did you get a signing bonus?
 do recruiters bribe you to enlist?
-is money important</t>
+is money important
+What kind of renumeration do you get in the Navy?
+What are the monetary benefits of joining the Navy?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A138_3_1</t>
@@ -2241,7 +2332,9 @@
 how do you plan for getting out of the military?
 what do you do when you retire from the Navy?
 what benefits do retirees get?
-what is Navy retirement?</t>
+what is Navy retirement?
+Do you get retirement benefits in the Navy?
+What benefits do you get after your retirement in your field?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A139_3_2</t>
@@ -2289,7 +2382,11 @@
     <t xml:space="preserve">What is bootcamp like?
 tell me more about the bootcamp
 how is the bootcamp?
-is it hard to survive in the bootcamp?</t>
+is it hard to survive in the bootcamp?
+What can you tell about the military bootcamp?
+Is the military bootcamp as hard as it is rumoured to be?
+Did you find the bootcamp really difficult?
+What do you do in the Bootcamp?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A142_3_2</t>
@@ -2331,7 +2428,11 @@
 are you time constrained in what you do every day or across your entire career?
 is there any slack built into your work day?
 how important is time management in the Navy?
-Is it okay to be late?</t>
+Is it okay to be late?
+Do you have rigid working hours?
+How does deadlines work in the military?
+is there any leniency with respect to time in the military?
+How chill is military about deadlines?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A145_3_2</t>
@@ -2344,7 +2445,9 @@
 how likely is it that I will get to do what I want to do?
 will the Navy assigned me to something I hate to do?
 can I do another job if I don't like mine?
-are jobs in the Navy permanent?</t>
+are jobs in the Navy permanent?
+Can you choose your area of work based on interest in the military?
+Does the Navy give you enough flexibility to choose your area of work?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A146_3_2</t>
@@ -2372,7 +2475,11 @@
 will my pay be better or worse than that of a civilian?
 what is the pay like outside the military?
 will I make more or less than non-military people?
-will I make more money if I join the military?</t>
+will I make more money if I join the military?
+Do you get a handsome pay in the military?
+Do you think you would have earned more as a civilian ?
+Does military provide renumeration better than civilian life?
+Does military provide you with satisfactory monetary benefits?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A148_3_2</t>
@@ -2488,7 +2595,9 @@
 what makes people want to quit?
 is there a reason that drives personnel to leave the service?
 why do so many people leave the military?
-what reasons are there to leave the Navy?</t>
+what reasons are there to leave the Navy?
+What is hard about military?
+Do you think military life can sometimes be too hard on people?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A155_3_2</t>
@@ -2539,7 +2648,8 @@
 can I impact how soon I get advanced?
 how does advancement work?
 is it common to be promoted?
-How did you get a PhD?</t>
+How did you get a PhD?
+What are the potential of advancing in this career?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A158_3_2</t>
@@ -2552,7 +2662,9 @@
 is this training useful in civilian life?
 will this help me get a good job when I get out?
 do employers like to hire veterans?
-will my Navy skills transfer to civilian life?</t>
+will my Navy skills transfer to civilian life?
+What is the employment scene after getting out of Navy?
+Are the Navy skills useful in civilian life?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A159_3_2</t>
@@ -2565,7 +2677,8 @@
 tell me a good "sea story" that reveals the real Navy.
 is there some tale that would help me understand the Navy life?
 are there experiences you have had that exemplify a Navy career?
-How was it working on the Marina?</t>
+How was it working on the Marina?
+What is it like working in the Navy?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A160_3_2</t>
@@ -2633,7 +2746,9 @@
     <t xml:space="preserve">Who gave you the best advice about your life?
 Who is your life mentor?
 what person do you rely on for life advice?
-what is the best piece of life advice you've gotten?</t>
+what is the best piece of life advice you've gotten?
+What is the best advice have you gotten?
+Do you have a personal mentor who gives you advice about life?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A165_3_2</t>
@@ -2645,7 +2760,8 @@
     <t xml:space="preserve">What is the most important lesson about life you have learned?
 what is the best advice you can give about life?
 what important things can you tell me about life?
-what is the most essential thing you know about life?</t>
+what is the most essential thing you know about life?
+Do you have any advice for life to give me?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A166_3_2</t>
@@ -2669,7 +2785,9 @@
   <si>
     <t xml:space="preserve">What problem are you looking to solve?
 What are you trying to fix?
-What problem are you solving?</t>
+What problem are you solving?
+Is there a problem that you really want to solve?
+If you get a chance to solve one problem, what would it be?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A168_4_1</t>
@@ -2695,7 +2813,9 @@
     <t xml:space="preserve">How often do you ever get in a "state of flow" when doing your job?
 Do you get in "the zone" at work?
 Do you reach a flow state when working?
-Do you ever get so focused that you forget about your surroundings?</t>
+Do you ever get so focused that you forget about your surroundings?
+Have you ever been in a flow in your work?
+Have you ever been such immersed in work that you forgot about everything else?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A170_4_1</t>
@@ -2708,7 +2828,8 @@
 What are you proud of?
 What would you want to show off to others?
 Are you proud of your work?
-Are you happy with your successes?</t>
+Are you happy with your successes?
+What is something that you are proud of?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A171_4_1</t>
@@ -2752,7 +2873,10 @@
     <t xml:space="preserve">What do you not like to do?
 what do you hate doing?
 tell me about something you don't like.
-What’s the worst thing about your job?</t>
+What’s the worst thing about your job?
+Is there something that you really not like doing?
+Can you tell me about something that you have s strong disliking for?
+What is it that you do not prefer to do?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A174_4_1</t>
@@ -2782,7 +2906,9 @@
 What inspires you as a navy man?
 How do you stay motivated to work everyday?
 Why are you motivated to be at work everyday?
-How do you reward yourself?</t>
+How do you reward yourself?
+What motivates you to get up from your bed and go to work everyday?
+What part about your job inspires you so much that you go to work on Monday with a smile?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A176_4_1</t>
@@ -2797,7 +2923,8 @@
 How would you suggest keeping an effective balance with work and life?
 How do you balance work and play?
 How do you balance work with everything else?
-Is it difficult to manage work and live a healthy lifestyle?</t>
+Is it difficult to manage work and live a healthy lifestyle?
+How do you manage to keep both your boss and your wife happy?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A177_4_1</t>
@@ -2843,7 +2970,9 @@
 What STEM opportunities are there in the military?
 Are there STEM positions in the military?
 How can I do STEM in the military?
-What are examples of STEM careers in the military?</t>
+What are examples of STEM careers in the military?
+Does military has scope for STEM?
+Do you find STEM opportunities in the military?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A180_4_1</t>
@@ -2976,7 +3105,9 @@
   <si>
     <t xml:space="preserve">What characterizes a good career?
 what should I look for in a career?
-what makes a career interesting?</t>
+what makes a career interesting?
+What makes a career good?
+How should you know that this is a good career?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A189_4_1</t>
@@ -3015,7 +3146,9 @@
   </si>
   <si>
     <t xml:space="preserve">Why shouldn't someone choose to go into cryptology?
-tell me some disadvatage of stem career</t>
+tell me some disadvatage of stem career
+Why would someone not join a STEM field?
+What makes a career in STEM a bad choice?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A192_4_1</t>
@@ -3143,7 +3276,10 @@
   <si>
     <t xml:space="preserve">Tell me about a mentor that you have or had.
 tell me about your mentor?
-do you have a mentor?</t>
+do you have a mentor?
+Can you tell me about some of the people who have mentored you in life?
+Tell me about some of the people who have mentored you in your career?
+Do you have someone who influenced your career a lot?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A201_4_2</t>
@@ -3256,7 +3392,9 @@
     <t xml:space="preserve">What was your plan to reach your career/life goal?
 how did you plan to reach your career goals
 what are your goals in life?
-Do you have a bucket list in life?</t>
+Do you have a bucket list in life?
+How did you plan every stage in your career?
+Can you tell me about the plans you had for your career?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A209_4_3</t>
@@ -3960,7 +4098,9 @@
     <t xml:space="preserve">What is your favorite college memory?
 Tell me a good story about college.
 Did anything cool happen in college?
-Favorite story?</t>
+Favorite story?
+What can you tell about college?
+What do you remember about college?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A256_5_2</t>
@@ -4330,7 +4470,8 @@
   <si>
     <t xml:space="preserve">How long have you been in the reserves?
 Are you in the reserves?
-When were you in the reserves?</t>
+When were you in the reserves?
+Did you spend long in the reserves</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A280_6_1</t>
@@ -4342,7 +4483,8 @@
     <t xml:space="preserve">What is the age limit to join the Navy?
 how old do I have to be to join the military?
 is there an age limit for the military?
-am i too young to join?</t>
+am i too young to join?
+Does joining military has an age restriction?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A281_6_1</t>
@@ -4411,7 +4553,9 @@
     <t xml:space="preserve">Tell me about the cryptology project that you are most proud of.
 Tell me about the your computer science project that you are most proud of.
 Tell me about the your cryptography project that you are most proud of.
-Tell me about the CS project that you are most proud of.</t>
+Tell me about the CS project that you are most proud of.
+What will you say about a projce that you are really proud of?
+Can you tell me about a project that you really wanna show off?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A286_6_1</t>
@@ -4758,7 +4902,8 @@
   </si>
   <si>
     <t xml:space="preserve">Are there any military focused extracurricular activities for high school students?
-Are there any extracurricular activities that help prepare you for the military in high school?</t>
+Are there any extracurricular activities that help prepare you for the military in high school?
+What activities will you suggest for someone in high school so that he can get ready for the military?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A311_6_3</t>
@@ -5182,7 +5327,9 @@
   </si>
   <si>
     <t xml:space="preserve">What is a Cryptologist?
-What does a cryptologist do?</t>
+What does a cryptologist do?
+What do you mean by Cryptologist?
+Can you explain the job function of a Cryptologist?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A341_7_1</t>
@@ -5204,7 +5351,8 @@
   <si>
     <t xml:space="preserve">Is this work classified?
 Is this work classified information?
-Are things under NDA?</t>
+Are things under NDA?
+Do you work on classified information?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A343_7_1</t>
@@ -5215,7 +5363,8 @@
   <si>
     <t xml:space="preserve">What is a security clearance?
 Can you get access to classsified data?
-Is there secret information?</t>
+Is there secret information?
+What do you mean by as security clearance?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A344_7_1</t>
@@ -5227,7 +5376,9 @@
     <t xml:space="preserve">Does this job require a security clearance?
 Does this field require a security clearance?
 Do you need a clearance to get this data?
-Do they check your background?</t>
+Do they check your background?
+Does the military perform a background check on you?
+Do you need to have a clean background ?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A345_7_1</t>
@@ -5238,7 +5389,9 @@
   <si>
     <t xml:space="preserve">What is a linguist in the military?
 What does a linguist do in the millitary?
-How do Americans speak to people who know different languages?</t>
+How do Americans speak to people who know different languages?
+What are the duties of a linguist role in the military?
+What job function does a linguist have in the Navy?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A346_7_1</t>
@@ -5248,7 +5401,10 @@
   </si>
   <si>
     <t xml:space="preserve">What training do linguists get in the service?
-What training do linguists have to do?</t>
+What training do linguists have to do?
+What kind of things do they train a linguist for?
+Can you tell me about the training you had for the military?
+I want to know more about the kind of training you had in the military?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A347_7_1</t>
@@ -5258,7 +5414,10 @@
   </si>
   <si>
     <t xml:space="preserve">How long does the training take?
-How long does it take to become a cryptologic linguist?</t>
+How long does it take to become a cryptologic linguist?
+Does it take long to be a linguist?
+What is the duration of the training?
+Is it a tedious job to study for linguistics?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A348_7_1</t>
@@ -5268,7 +5427,10 @@
   </si>
   <si>
     <t xml:space="preserve">How hard is the linguistic training?
-How hard is the training to become a linguist?</t>
+How hard is the training to become a linguist?
+Would you say it is hard to become a linguist?
+Is it hard to be a linguist?
+Do you think it is hard to train for a linguist position?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A349_7_1</t>
@@ -5278,7 +5440,10 @@
   </si>
   <si>
     <t xml:space="preserve">What happens if a student can't learn the language?
-What happens if I can't learn the language?</t>
+What happens if I can't learn the language?
+What do you do when you can't learn a language?
+Is it hard to learn a new language?
+How should you approach learning a new language?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A350_7_1</t>
@@ -5288,7 +5453,9 @@
   </si>
   <si>
     <t xml:space="preserve">What are the duties of a cryptologic linguist?
-What does a linguist have to do?</t>
+What does a linguist have to do?
+What job does a linguist have?
+Can you tell me more about the duties of a linguist?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A351_7_1</t>
@@ -5298,7 +5465,10 @@
   </si>
   <si>
     <t xml:space="preserve">What are the other fields in cryptology?
-What does cryptology have in the field?</t>
+What does cryptology have in the field?
+Do you multiple sub fields in cryptology?
+Can you tell me more about Cryptology?
+Do you have a variety in cryptology?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A352_7_1</t>
@@ -5308,7 +5478,10 @@
   </si>
   <si>
     <t xml:space="preserve">Where in the world are cryptologists stationed?
-Where do Cryptologists live?</t>
+Where do Cryptologists live?
+Do cryptologists live in dark, undercover labs?
+What can you tell about the location of work of cryptologists?
+Where do people in your profession are stationed?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A353_7_1</t>
@@ -5318,7 +5491,10 @@
   </si>
   <si>
     <t xml:space="preserve">What are their working conditions like?
-What are the working conditions for a cryptologist like you?</t>
+What are the working conditions for a cryptologist like you?
+Can you tell me more about the conditions you work in?
+What can you tell me about the work conditions you have?
+What are the work conditions that people in your profession work in?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A354_7_1</t>
@@ -5328,7 +5504,8 @@
   </si>
   <si>
     <t xml:space="preserve">Are there civilian jobs that do the same things?
-Are there civilians that do cryptology and intelligence too?</t>
+Are there civilians that do cryptology and intelligence too?
+Do you have civilians working on the same things as you in Navy do?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A355_7_1</t>
@@ -5420,7 +5597,9 @@
   </si>
   <si>
     <t xml:space="preserve">Can you compare working in industry to working in academia?
-What is it like working in academia versus in Industry?</t>
+What is it like working in academia versus in Industry?
+What changes do you see between working in academia and Industry?
+What kind of cultural differences did you see in working with Academia versus Industry?</t>
   </si>
   <si>
     <t xml:space="preserve">dandavis_A364_7_2</t>
@@ -5555,13 +5734,13 @@
   <dimension ref="A1:C365"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="R13" activeCellId="0" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="43.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
